--- a/Test Summaries/Test Summary 2.0 Template.xlsx
+++ b/Test Summaries/Test Summary 2.0 Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalee\Documents\Work\City University\Performance Testing\Test Summaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFD2325-C09C-4970-8CBA-A0454461C689}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB95C63-F738-4AC0-BBE8-4F851328B929}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="19">
   <si>
     <t>Pub 1</t>
   </si>
@@ -601,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N44"/>
+  <dimension ref="A2:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
     <col min="14" max="16" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
@@ -629,7 +629,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="C4" s="10" t="s">
         <v>0</v>
@@ -646,7 +646,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="C5" s="11" t="s">
         <v>2</v>
@@ -667,7 +667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -678,7 +678,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -689,7 +689,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -700,250 +700,213 @@
       <c r="H8" s="16"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="C12" s="1" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="G13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="C14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="C15" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="9" t="s">
+      <c r="D14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="4"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="5"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="6"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="18"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="6"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="C24" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D24" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F24" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G24" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="C23" s="11" t="s">
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="C25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="9" t="s">
+      <c r="D25" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
@@ -965,24 +928,9 @@
       <c r="H32" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N32" s="8"/>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="C33" s="11" t="s">
         <v>2</v>
@@ -1002,26 +950,11 @@
       <c r="H33" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="9" t="s">
+      <c r="I33" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
@@ -1031,14 +964,9 @@
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>5</v>
       </c>
@@ -1048,14 +976,9 @@
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="5"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
@@ -1065,157 +988,789 @@
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C38" s="1" t="s">
+      <c r="I36" s="6"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="C39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="C41" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="C42" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="17"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="C40" s="10" t="s">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="C49" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D49" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E49" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F49" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G49" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H49" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="C50" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="17"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="C60" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="J60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="12" t="s">
+      <c r="K60" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="L60" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M40" s="12" t="s">
+      <c r="M60" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N40" s="8"/>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="C41" s="11" t="s">
+      <c r="N60" s="8"/>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="C61" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="9" t="s">
+      <c r="D61" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L61" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M61" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N61" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="C62" s="17"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="4"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="5"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="C63" s="19"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="5"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="6"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="6"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="68" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="C68" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L68" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M68" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N68" s="8"/>
+    </row>
+    <row r="69" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="C69" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L69" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M69" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="17"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="4"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="5"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="18"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="6"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="77" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="C77" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L77" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M77" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N77" s="8"/>
+    </row>
+    <row r="78" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="C78" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L78" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M78" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="17"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="19"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="5"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="18"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="6"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+    </row>
+    <row r="85" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="C85" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J85" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K85" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L85" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M85" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N85" s="8"/>
+    </row>
+    <row r="86" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="C86" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J86" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K86" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L86" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M86" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="17"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="4"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="19"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="5"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="18"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Summaries/Test Summary 2.0 Template.xlsx
+++ b/Test Summaries/Test Summary 2.0 Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalee\Documents\Work\City University\Performance Testing\Test Summaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB95C63-F738-4AC0-BBE8-4F851328B929}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF94DFB-AD8A-4384-9A84-DAC4D90D6F59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="37">
   <si>
     <t>Pub 1</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Sub 1</t>
   </si>
   <si>
-    <t xml:space="preserve"> One-way Latency (us)</t>
-  </si>
-  <si>
     <t>Throughput (mbps)</t>
   </si>
   <si>
@@ -75,13 +72,70 @@
     <t>Sub 10</t>
   </si>
   <si>
-    <t>Title 1</t>
-  </si>
-  <si>
-    <t>Title 2</t>
-  </si>
-  <si>
     <t>Time Taken (s)</t>
+  </si>
+  <si>
+    <t>Best Effort Multicast</t>
+  </si>
+  <si>
+    <t>Best Effort Unicast</t>
+  </si>
+  <si>
+    <t>Reliable Multicast</t>
+  </si>
+  <si>
+    <t>Reliable Unicast</t>
+  </si>
+  <si>
+    <t>Test 1.1</t>
+  </si>
+  <si>
+    <t>Test 1.2</t>
+  </si>
+  <si>
+    <t>Test 1.3</t>
+  </si>
+  <si>
+    <t>Test 1.4</t>
+  </si>
+  <si>
+    <t>Test 1.5</t>
+  </si>
+  <si>
+    <t>Test 1.6</t>
+  </si>
+  <si>
+    <t>Test 1.7</t>
+  </si>
+  <si>
+    <t>Test 1.8</t>
+  </si>
+  <si>
+    <t>Test 1.9</t>
+  </si>
+  <si>
+    <t>Test 1.10</t>
+  </si>
+  <si>
+    <t>Test 1.11</t>
+  </si>
+  <si>
+    <t>Test 1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> One-way Latency (us) [Zero Avg]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> One-way Latency (us) [Non Zero Avg]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> One-way Latency (us) [Avg]</t>
   </si>
 </sst>
 </file>
@@ -268,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -321,6 +375,22 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,187 +671,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N89"/>
+  <dimension ref="A2:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O87" sqref="C87:O89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.28515625" customWidth="1"/>
     <col min="12" max="12" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="8"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="C5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="4"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="5"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="6"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="4"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="5"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="6"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="G13" s="10" t="s">
+      <c r="F13" s="8"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="J13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="C14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="4"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="4"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" s="19"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="5"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="5"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="5"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="6"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="6"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="6"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
@@ -809,380 +919,420 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="E24" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="F24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="H24" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="I24" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="C25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>3</v>
+        <v>33</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="17"/>
-      <c r="D26" s="14"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="4"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="19"/>
-      <c r="D27" s="15"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="5"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="18"/>
-      <c r="D28" s="16"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="E32" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="F32" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="H32" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="I32" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="C33" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>3</v>
+        <v>33</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="17"/>
-      <c r="D34" s="14"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
-      <c r="I34" s="4"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="19"/>
-      <c r="D35" s="15"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="5"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" s="18"/>
-      <c r="D36" s="16"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
-      <c r="I36" s="6"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="6"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="C39" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="10"/>
+      <c r="D41" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="E41" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="F41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="H41" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="I41" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="C42" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>3</v>
+        <v>33</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="14"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
-      <c r="I43" s="4"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" s="19"/>
-      <c r="D44" s="15"/>
+      <c r="D44" s="21"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
-      <c r="I44" s="5"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="16"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
-      <c r="I45" s="6"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="6"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-    </row>
-    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I47" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="10"/>
+      <c r="D49" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="E49" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="F49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="H49" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="I49" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H49" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="8"/>
-    </row>
-    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="C50" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="C51" s="17"/>
-      <c r="D51" s="14"/>
+      <c r="D51" s="20"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I51" s="14"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" s="19"/>
-      <c r="D52" s="15"/>
+      <c r="D52" s="21"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
-      <c r="I52" s="5"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I52" s="15"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" s="18"/>
-      <c r="D53" s="16"/>
+      <c r="D53" s="24"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="55" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I53" s="16"/>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="55" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1197,12 +1347,15 @@
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" s="7"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -1212,89 +1365,98 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-    </row>
-    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O58" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="C60" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="E60" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="F60" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="H60" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="12" t="s">
+      <c r="I60" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H60" s="12" t="s">
+      <c r="J60" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="12" t="s">
+      <c r="K60" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J60" s="12" t="s">
+      <c r="L60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K60" s="12" t="s">
+      <c r="M60" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L60" s="12" t="s">
+      <c r="N60" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M60" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N60" s="8"/>
-    </row>
-    <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O60" s="8"/>
+    </row>
+    <row r="61" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="C61" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L61" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M61" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N61" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="O61" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J61" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K61" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L61" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="M61" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N61" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="C62" s="17"/>
-      <c r="D62" s="14"/>
+      <c r="D62" s="20"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
@@ -1304,14 +1466,15 @@
       <c r="K62" s="14"/>
       <c r="L62" s="14"/>
       <c r="M62" s="14"/>
-      <c r="N62" s="4"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N62" s="14"/>
+      <c r="O62" s="4"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63" s="19"/>
-      <c r="D63" s="15"/>
+      <c r="D63" s="21"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -1321,14 +1484,15 @@
       <c r="K63" s="15"/>
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
-      <c r="N63" s="5"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N63" s="15"/>
+      <c r="O63" s="5"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" s="18"/>
-      <c r="D64" s="16"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
@@ -1338,16 +1502,16 @@
       <c r="K64" s="16"/>
       <c r="L64" s="16"/>
       <c r="M64" s="16"/>
-      <c r="N64" s="6"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N64" s="16"/>
+      <c r="O64" s="6"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="1"/>
+        <v>18</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -1357,89 +1521,97 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
-    </row>
-    <row r="68" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N66" s="1"/>
+      <c r="O66" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="10"/>
+      <c r="D68" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="E68" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="F68" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="H68" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="12" t="s">
+      <c r="I68" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H68" s="12" t="s">
+      <c r="J68" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I68" s="12" t="s">
+      <c r="K68" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J68" s="12" t="s">
+      <c r="L68" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K68" s="12" t="s">
+      <c r="M68" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L68" s="12" t="s">
+      <c r="N68" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M68" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N68" s="8"/>
-    </row>
-    <row r="69" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O68" s="8"/>
+    </row>
+    <row r="69" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="C69" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L69" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M69" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N69" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="O69" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I69" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J69" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K69" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L69" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="M69" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N69" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="C70" s="17"/>
-      <c r="D70" s="14"/>
+      <c r="D70" s="20"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
@@ -1449,14 +1621,15 @@
       <c r="K70" s="14"/>
       <c r="L70" s="14"/>
       <c r="M70" s="14"/>
-      <c r="N70" s="4"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N70" s="14"/>
+      <c r="O70" s="4"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C71" s="19"/>
-      <c r="D71" s="15"/>
+      <c r="D71" s="21"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
@@ -1466,14 +1639,15 @@
       <c r="K71" s="15"/>
       <c r="L71" s="15"/>
       <c r="M71" s="15"/>
-      <c r="N71" s="5"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N71" s="15"/>
+      <c r="O71" s="5"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" s="18"/>
-      <c r="D72" s="16"/>
+      <c r="D72" s="24"/>
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
@@ -1483,13 +1657,13 @@
       <c r="K72" s="16"/>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
-      <c r="N72" s="6"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N72" s="16"/>
+      <c r="O72" s="6"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C75" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" s="1"/>
+        <v>17</v>
+      </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -1499,89 +1673,97 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
-    </row>
-    <row r="77" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N75" s="1"/>
+      <c r="O75" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="10"/>
+      <c r="D77" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="E77" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="F77" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F77" s="12" t="s">
+      <c r="H77" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="12" t="s">
+      <c r="I77" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H77" s="12" t="s">
+      <c r="J77" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I77" s="12" t="s">
+      <c r="K77" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J77" s="12" t="s">
+      <c r="L77" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K77" s="12" t="s">
+      <c r="M77" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L77" s="12" t="s">
+      <c r="N77" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M77" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N77" s="8"/>
-    </row>
-    <row r="78" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O77" s="8"/>
+    </row>
+    <row r="78" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="C78" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L78" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M78" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N78" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="O78" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J78" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K78" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L78" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="M78" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N78" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="C79" s="17"/>
-      <c r="D79" s="14"/>
+      <c r="D79" s="20"/>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
@@ -1591,14 +1773,15 @@
       <c r="K79" s="14"/>
       <c r="L79" s="14"/>
       <c r="M79" s="14"/>
-      <c r="N79" s="4"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N79" s="14"/>
+      <c r="O79" s="4"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C80" s="19"/>
-      <c r="D80" s="15"/>
+      <c r="D80" s="21"/>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
@@ -1608,14 +1791,15 @@
       <c r="K80" s="15"/>
       <c r="L80" s="15"/>
       <c r="M80" s="15"/>
-      <c r="N80" s="5"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N80" s="15"/>
+      <c r="O80" s="5"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" s="18"/>
-      <c r="D81" s="16"/>
+      <c r="D81" s="24"/>
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
@@ -1625,16 +1809,16 @@
       <c r="K81" s="16"/>
       <c r="L81" s="16"/>
       <c r="M81" s="16"/>
-      <c r="N81" s="6"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N81" s="16"/>
+      <c r="O81" s="6"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" s="1"/>
+        <v>19</v>
+      </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -1644,89 +1828,97 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
-    </row>
-    <row r="85" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N83" s="1"/>
+      <c r="O83" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="10"/>
+      <c r="D85" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="E85" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E85" s="12" t="s">
+      <c r="F85" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F85" s="12" t="s">
+      <c r="H85" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G85" s="12" t="s">
+      <c r="I85" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H85" s="12" t="s">
+      <c r="J85" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I85" s="12" t="s">
+      <c r="K85" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J85" s="12" t="s">
+      <c r="L85" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K85" s="12" t="s">
+      <c r="M85" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L85" s="12" t="s">
+      <c r="N85" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M85" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N85" s="8"/>
-    </row>
-    <row r="86" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O85" s="8"/>
+    </row>
+    <row r="86" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="C86" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J86" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K86" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L86" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M86" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N86" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="O86" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E86" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H86" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I86" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J86" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K86" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L86" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="M86" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N86" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="C87" s="17"/>
-      <c r="D87" s="14"/>
+      <c r="D87" s="20"/>
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
       <c r="G87" s="14"/>
@@ -1736,14 +1928,15 @@
       <c r="K87" s="14"/>
       <c r="L87" s="14"/>
       <c r="M87" s="14"/>
-      <c r="N87" s="4"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N87" s="14"/>
+      <c r="O87" s="4"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C88" s="19"/>
-      <c r="D88" s="15"/>
+      <c r="D88" s="21"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
@@ -1753,14 +1946,15 @@
       <c r="K88" s="15"/>
       <c r="L88" s="15"/>
       <c r="M88" s="15"/>
-      <c r="N88" s="5"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N88" s="15"/>
+      <c r="O88" s="5"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C89" s="18"/>
-      <c r="D89" s="16"/>
+      <c r="D89" s="24"/>
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
       <c r="G89" s="16"/>
@@ -1770,7 +1964,8 @@
       <c r="K89" s="16"/>
       <c r="L89" s="16"/>
       <c r="M89" s="16"/>
-      <c r="N89" s="6"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
